--- a/data_year/zb/能源/汽油平衡表.xlsx
+++ b/data_year/zb/能源/汽油平衡表.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,977 +508,540 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1527.8</v>
+        <v>3274.92183007222</v>
       </c>
       <c r="C2" t="n">
-        <v>792.7</v>
+        <v>1166.2237</v>
       </c>
       <c r="D2" t="n">
-        <v>89.2</v>
+        <v>169.0681905393</v>
       </c>
       <c r="E2" t="n">
-        <v>227.6</v>
+        <v>1213.65429269923</v>
       </c>
       <c r="F2" t="n">
-        <v>682</v>
+        <v>689.46</v>
       </c>
       <c r="G2" t="n">
-        <v>115.6</v>
+        <v>274.6973904</v>
       </c>
       <c r="H2" t="n">
-        <v>69.8</v>
+        <v>168.1760376</v>
       </c>
       <c r="I2" t="n">
-        <v>467.7</v>
+        <v>517</v>
       </c>
       <c r="J2" t="n">
-        <v>3504.5</v>
+        <v>6964.3</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.1</v>
+        <v>8.09448916146812</v>
       </c>
       <c r="L2" t="n">
-        <v>-162.5</v>
+        <v>70.81999999999989</v>
       </c>
       <c r="M2" t="n">
-        <v>4134.7</v>
+        <v>7410.47</v>
       </c>
       <c r="N2" t="n">
-        <v>3504.6</v>
+        <v>6956.20551083853</v>
       </c>
       <c r="O2" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1564.37</v>
+        <v>3573.51949251858</v>
       </c>
       <c r="C3" t="n">
-        <v>804.3</v>
+        <v>1313.1678862</v>
       </c>
       <c r="D3" t="n">
-        <v>93.42</v>
+        <v>185.97500959323</v>
       </c>
       <c r="E3" t="n">
-        <v>244.6</v>
+        <v>1458.56468487897</v>
       </c>
       <c r="F3" t="n">
-        <v>705.14</v>
+        <v>604.8099999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>116.7</v>
+        <v>282.77349367776</v>
       </c>
       <c r="H3" t="n">
-        <v>69.04000000000001</v>
+        <v>177.13982040408</v>
       </c>
       <c r="I3" t="n">
-        <v>585.96</v>
+        <v>406.01</v>
       </c>
       <c r="J3" t="n">
-        <v>3606.86</v>
+        <v>7597.86</v>
       </c>
       <c r="K3" t="n">
-        <v>9.289999999999511</v>
+        <v>1.91451873703772</v>
       </c>
       <c r="L3" t="n">
-        <v>38.14</v>
+        <v>-117</v>
       </c>
       <c r="M3" t="n">
-        <v>4154.66</v>
+        <v>8117.94</v>
       </c>
       <c r="N3" t="n">
-        <v>3597.57</v>
+        <v>7595.94548126296</v>
       </c>
       <c r="O3" t="n">
-        <v>0.02</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1603.5</v>
+        <v>3778.02625102874</v>
       </c>
       <c r="C4" t="n">
-        <v>866.29</v>
+        <v>1460.50532303164</v>
       </c>
       <c r="D4" t="n">
-        <v>101.551</v>
+        <v>192.85608494818</v>
       </c>
       <c r="E4" t="n">
-        <v>273.8</v>
+        <v>1666.5204588897</v>
       </c>
       <c r="F4" t="n">
-        <v>717.64</v>
+        <v>581.0599999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>112.32</v>
+        <v>286.873709336088</v>
       </c>
       <c r="H4" t="n">
-        <v>74.22</v>
+        <v>200.061713164368</v>
       </c>
       <c r="I4" t="n">
-        <v>630.41</v>
+        <v>291.68</v>
       </c>
       <c r="J4" t="n">
-        <v>3749.68</v>
+        <v>8164.52</v>
       </c>
       <c r="K4" t="n">
-        <v>0.359000000000378</v>
+        <v>-1.38404423539669</v>
       </c>
       <c r="L4" t="n">
-        <v>59.33</v>
+        <v>-520.3200000000001</v>
       </c>
       <c r="M4" t="n">
-        <v>4320.76</v>
+        <v>8976.07</v>
       </c>
       <c r="N4" t="n">
-        <v>3749.321</v>
+        <v>8165.9040442354</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1915.14</v>
+        <v>4381.80409940369</v>
       </c>
       <c r="C5" t="n">
-        <v>877</v>
+        <v>1818.67804951597</v>
       </c>
       <c r="D5" t="n">
-        <v>116.5</v>
+        <v>198.718909930604</v>
       </c>
       <c r="E5" t="n">
-        <v>338.75</v>
+        <v>1896.44939609752</v>
       </c>
       <c r="F5" t="n">
-        <v>632.88</v>
+        <v>523.38</v>
       </c>
       <c r="G5" t="n">
-        <v>113.66</v>
+        <v>326.462281224468</v>
       </c>
       <c r="H5" t="n">
-        <v>78.09</v>
+        <v>220.86</v>
       </c>
       <c r="I5" t="n">
-        <v>754.24</v>
+        <v>468.73</v>
       </c>
       <c r="J5" t="n">
-        <v>4072.29</v>
+        <v>9369.540000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.270000000000437</v>
+        <v>3.19148420246165</v>
       </c>
       <c r="L5" t="n">
-        <v>35.67</v>
+        <v>4.18999999999983</v>
       </c>
       <c r="M5" t="n">
-        <v>4790.86</v>
+        <v>9834.040000000001</v>
       </c>
       <c r="N5" t="n">
-        <v>4072.02</v>
-      </c>
-      <c r="O5" t="inlineStr"/>
+        <v>9366.35</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2334.46</v>
+        <v>4665</v>
       </c>
       <c r="C6" t="n">
-        <v>986.9378</v>
+        <v>1738.1</v>
       </c>
       <c r="D6" t="n">
-        <v>134.091</v>
+        <v>216.6</v>
       </c>
       <c r="E6" t="n">
-        <v>456.539448</v>
+        <v>2118.8</v>
       </c>
       <c r="F6" t="n">
-        <v>507.4</v>
+        <v>489</v>
       </c>
       <c r="G6" t="n">
-        <v>156.49</v>
+        <v>331</v>
       </c>
       <c r="H6" t="n">
-        <v>119.803456</v>
+        <v>217.8</v>
       </c>
       <c r="I6" t="n">
-        <v>540.71</v>
+        <v>507.5</v>
       </c>
       <c r="J6" t="n">
-        <v>4697.1704</v>
+        <v>9770.700000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>1.44869600000038</v>
+        <v>-5.7</v>
       </c>
       <c r="L6" t="n">
-        <v>-27.3696</v>
+        <v>-755</v>
       </c>
       <c r="M6" t="n">
-        <v>5265.25</v>
+        <v>11029.9</v>
       </c>
       <c r="N6" t="n">
-        <v>4695.721704</v>
-      </c>
-      <c r="O6" t="inlineStr"/>
+        <v>9776.4</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2430.1</v>
+        <v>5306.6</v>
       </c>
       <c r="C7" t="n">
-        <v>998.2</v>
+        <v>2108.5</v>
       </c>
       <c r="D7" t="n">
-        <v>159.6</v>
+        <v>231.3</v>
       </c>
       <c r="E7" t="n">
-        <v>523.8</v>
+        <v>2593.1</v>
       </c>
       <c r="F7" t="n">
-        <v>441.7</v>
+        <v>477.1</v>
       </c>
       <c r="G7" t="n">
-        <v>172.1</v>
+        <v>408.6</v>
       </c>
       <c r="H7" t="n">
-        <v>129.4</v>
+        <v>243.3</v>
       </c>
       <c r="I7" t="n">
-        <v>559.7</v>
+        <v>589.3</v>
       </c>
       <c r="J7" t="n">
-        <v>4855.3</v>
+        <v>11385</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4</v>
+        <v>16.6</v>
       </c>
       <c r="L7" t="n">
-        <v>-18.6</v>
+        <v>-146.3</v>
       </c>
       <c r="M7" t="n">
-        <v>5433.6</v>
+        <v>12103.6</v>
       </c>
       <c r="N7" t="n">
-        <v>4854.9</v>
+        <v>11368.5</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0044</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2592.3545</v>
+        <v>5511.1</v>
       </c>
       <c r="C8" t="n">
-        <v>1064.11</v>
+        <v>2046.4</v>
       </c>
       <c r="D8" t="n">
-        <v>167.7482023</v>
+        <v>224.4</v>
       </c>
       <c r="E8" t="n">
-        <v>615.740653</v>
+        <v>2969.7</v>
       </c>
       <c r="F8" t="n">
-        <v>498.5</v>
+        <v>436.3</v>
       </c>
       <c r="G8" t="n">
-        <v>180.747</v>
+        <v>437.3</v>
       </c>
       <c r="H8" t="n">
-        <v>123.3412</v>
+        <v>240.9</v>
       </c>
       <c r="I8" t="n">
-        <v>350.54</v>
+        <v>969.3</v>
       </c>
       <c r="J8" t="n">
-        <v>5243.03</v>
+        <v>11829.4</v>
       </c>
       <c r="K8" t="n">
-        <v>0.488444699999491</v>
+        <v>-36.7</v>
       </c>
       <c r="L8" t="n">
-        <v>-7.48000000000002</v>
+        <v>-154.2</v>
       </c>
       <c r="M8" t="n">
-        <v>5594.96</v>
+        <v>12932</v>
       </c>
       <c r="N8" t="n">
-        <v>5242.5415553</v>
+        <v>11866</v>
       </c>
       <c r="O8" t="n">
-        <v>6.09</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2613.18525</v>
+        <v>5698.5</v>
       </c>
       <c r="C9" t="n">
-        <v>1119.67</v>
+        <v>2075</v>
       </c>
       <c r="D9" t="n">
-        <v>172.78044</v>
+        <v>229.6</v>
       </c>
       <c r="E9" t="n">
-        <v>778.3999989</v>
+        <v>3214.2</v>
       </c>
       <c r="F9" t="n">
-        <v>524.5</v>
+        <v>382.1</v>
       </c>
       <c r="G9" t="n">
-        <v>178.825</v>
+        <v>452.3</v>
       </c>
       <c r="H9" t="n">
-        <v>131.729252</v>
+        <v>244.5</v>
       </c>
       <c r="I9" t="n">
-        <v>464.27</v>
+        <v>1051.4</v>
       </c>
       <c r="J9" t="n">
-        <v>5519.25</v>
+        <v>12200.5</v>
       </c>
       <c r="K9" t="n">
-        <v>0.160059099999671</v>
+        <v>-95.8</v>
       </c>
       <c r="L9" t="n">
-        <v>42.92</v>
+        <v>-26</v>
       </c>
       <c r="M9" t="n">
-        <v>5917.9</v>
+        <v>13276.2</v>
       </c>
       <c r="N9" t="n">
-        <v>5519.0899409</v>
+        <v>12296.3</v>
       </c>
       <c r="O9" t="n">
-        <v>22.7</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3090.4309030568</v>
+        <v>6067.6</v>
       </c>
       <c r="C10" t="n">
-        <v>1121.93</v>
+        <v>2163.6</v>
       </c>
       <c r="D10" t="n">
-        <v>160.43898</v>
+        <v>242.9</v>
       </c>
       <c r="E10" t="n">
-        <v>855.14190354504</v>
+        <v>3504.2</v>
       </c>
       <c r="F10" t="n">
-        <v>586.10852</v>
+        <v>296.5</v>
       </c>
       <c r="G10" t="n">
-        <v>196.19</v>
+        <v>505</v>
       </c>
       <c r="H10" t="n">
-        <v>135.28</v>
+        <v>275.5</v>
       </c>
       <c r="I10" t="n">
-        <v>203.35</v>
+        <v>1287.9</v>
       </c>
       <c r="J10" t="n">
-        <v>6147.6354</v>
+        <v>13035.3</v>
       </c>
       <c r="K10" t="n">
-        <v>2.11451645496072</v>
+        <v>-20</v>
       </c>
       <c r="L10" t="n">
-        <v>-194.8846</v>
+        <v>13.9</v>
       </c>
       <c r="M10" t="n">
-        <v>6347.18</v>
+        <v>14264.7</v>
       </c>
       <c r="N10" t="n">
-        <v>6145.52088354504</v>
+        <v>13055.3</v>
       </c>
       <c r="O10" t="n">
-        <v>198.69</v>
+        <v>44.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2881.59473457009</v>
+        <v>6244.9</v>
       </c>
       <c r="C11" t="n">
-        <v>1069.93</v>
+        <v>2240.9</v>
       </c>
       <c r="D11" t="n">
-        <v>168.05983155</v>
+        <v>253.2</v>
       </c>
       <c r="E11" t="n">
-        <v>999.078626965186</v>
+        <v>3839.1</v>
       </c>
       <c r="F11" t="n">
-        <v>671.0700000000001</v>
+        <v>262</v>
       </c>
       <c r="G11" t="n">
-        <v>235.428</v>
+        <v>499.9</v>
       </c>
       <c r="H11" t="n">
-        <v>147.52284</v>
+        <v>287.9</v>
       </c>
       <c r="I11" t="n">
-        <v>491.9</v>
+        <v>1637.1</v>
       </c>
       <c r="J11" t="n">
-        <v>6181.81788</v>
+        <v>13690.3</v>
       </c>
       <c r="K11" t="n">
-        <v>9.13594548481433</v>
+        <v>62.3</v>
       </c>
       <c r="L11" t="n">
-        <v>-651.38212</v>
+        <v>413.3</v>
       </c>
       <c r="M11" t="n">
-        <v>7320.66</v>
+        <v>14880.7</v>
       </c>
       <c r="N11" t="n">
-        <v>6172.68193451519</v>
+        <v>13628</v>
       </c>
       <c r="O11" t="n">
-        <v>4.44</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3274.9</v>
+        <v>5573.6</v>
       </c>
       <c r="C12" t="n">
-        <v>1166.2</v>
+        <v>2253.1</v>
       </c>
       <c r="D12" t="n">
-        <v>169.1</v>
+        <v>257.3</v>
       </c>
       <c r="E12" t="n">
-        <v>1213.7</v>
+        <v>3717.6</v>
       </c>
       <c r="F12" t="n">
-        <v>689.5</v>
+        <v>184</v>
       </c>
       <c r="G12" t="n">
-        <v>274.7</v>
+        <v>508.4</v>
       </c>
       <c r="H12" t="n">
-        <v>168.2</v>
+        <v>273.2</v>
       </c>
       <c r="I12" t="n">
-        <v>517</v>
+        <v>1600</v>
       </c>
       <c r="J12" t="n">
-        <v>6964.3</v>
+        <v>12829</v>
       </c>
       <c r="K12" t="n">
-        <v>8.1</v>
+        <v>61.9</v>
       </c>
       <c r="L12" t="n">
-        <v>70.8</v>
+        <v>124.3</v>
       </c>
       <c r="M12" t="n">
-        <v>7410.5</v>
+        <v>14256.7</v>
       </c>
       <c r="N12" t="n">
-        <v>6956.2</v>
+        <v>12767.2</v>
       </c>
       <c r="O12" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>3573.5</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1313.2</v>
-      </c>
-      <c r="D13" t="n">
-        <v>186</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1458.6</v>
-      </c>
-      <c r="F13" t="n">
-        <v>604.8</v>
-      </c>
-      <c r="G13" t="n">
-        <v>282.8</v>
-      </c>
-      <c r="H13" t="n">
-        <v>177.1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>406</v>
-      </c>
-      <c r="J13" t="n">
-        <v>7597.9</v>
-      </c>
-      <c r="K13" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L13" t="n">
-        <v>-117</v>
-      </c>
-      <c r="M13" t="n">
-        <v>8117.9</v>
-      </c>
-      <c r="N13" t="n">
-        <v>7595.9</v>
-      </c>
-      <c r="O13" t="n">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>3778</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1460.5</v>
-      </c>
-      <c r="D14" t="n">
-        <v>192.9</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1666.5</v>
-      </c>
-      <c r="F14" t="n">
-        <v>581.1</v>
-      </c>
-      <c r="G14" t="n">
-        <v>286.9</v>
-      </c>
-      <c r="H14" t="n">
-        <v>200.1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>291.7</v>
-      </c>
-      <c r="J14" t="n">
-        <v>8164.5</v>
-      </c>
-      <c r="K14" t="n">
-        <v>-1.4</v>
-      </c>
-      <c r="L14" t="n">
-        <v>-520.3</v>
-      </c>
-      <c r="M14" t="n">
-        <v>8976.1</v>
-      </c>
-      <c r="N14" t="n">
-        <v>8165.9</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>4381.8</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1818.7</v>
-      </c>
-      <c r="D15" t="n">
-        <v>198.7</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1896.4</v>
-      </c>
-      <c r="F15" t="n">
-        <v>523.4</v>
-      </c>
-      <c r="G15" t="n">
-        <v>326.5</v>
-      </c>
-      <c r="H15" t="n">
-        <v>220.9</v>
-      </c>
-      <c r="I15" t="n">
-        <v>468.7</v>
-      </c>
-      <c r="J15" t="n">
-        <v>9369.5</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L15" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="M15" t="n">
-        <v>9834</v>
-      </c>
-      <c r="N15" t="n">
-        <v>9366.4</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>4665</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1738.1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>216.6</v>
-      </c>
-      <c r="E16" t="n">
-        <v>2118.8</v>
-      </c>
-      <c r="F16" t="n">
-        <v>489</v>
-      </c>
-      <c r="G16" t="n">
-        <v>331</v>
-      </c>
-      <c r="H16" t="n">
-        <v>217.8</v>
-      </c>
-      <c r="I16" t="n">
-        <v>507.5</v>
-      </c>
-      <c r="J16" t="n">
-        <v>9770.700000000001</v>
-      </c>
-      <c r="K16" t="n">
-        <v>-5.7</v>
-      </c>
-      <c r="L16" t="n">
-        <v>-755</v>
-      </c>
-      <c r="M16" t="n">
-        <v>11029.9</v>
-      </c>
-      <c r="N16" t="n">
-        <v>9776.4</v>
-      </c>
-      <c r="O16" t="n">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>5306.6</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2108.5</v>
-      </c>
-      <c r="D17" t="n">
-        <v>231.3</v>
-      </c>
-      <c r="E17" t="n">
-        <v>2593.1</v>
-      </c>
-      <c r="F17" t="n">
-        <v>477.1</v>
-      </c>
-      <c r="G17" t="n">
-        <v>408.6</v>
-      </c>
-      <c r="H17" t="n">
-        <v>243.3</v>
-      </c>
-      <c r="I17" t="n">
-        <v>589.3</v>
-      </c>
-      <c r="J17" t="n">
-        <v>11385</v>
-      </c>
-      <c r="K17" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="L17" t="n">
-        <v>-146.3</v>
-      </c>
-      <c r="M17" t="n">
-        <v>12103.6</v>
-      </c>
-      <c r="N17" t="n">
-        <v>11368.5</v>
-      </c>
-      <c r="O17" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>5511.1</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2046.4</v>
-      </c>
-      <c r="D18" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="E18" t="n">
-        <v>2969.7</v>
-      </c>
-      <c r="F18" t="n">
-        <v>436.3</v>
-      </c>
-      <c r="G18" t="n">
-        <v>437.3</v>
-      </c>
-      <c r="H18" t="n">
-        <v>240.9</v>
-      </c>
-      <c r="I18" t="n">
-        <v>969.3</v>
-      </c>
-      <c r="J18" t="n">
-        <v>11829.4</v>
-      </c>
-      <c r="K18" t="n">
-        <v>-36.7</v>
-      </c>
-      <c r="L18" t="n">
-        <v>-154.2</v>
-      </c>
-      <c r="M18" t="n">
-        <v>12932</v>
-      </c>
-      <c r="N18" t="n">
-        <v>11866</v>
-      </c>
-      <c r="O18" t="n">
-        <v>20.8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>5698.5</v>
-      </c>
-      <c r="C19" t="n">
-        <v>2075</v>
-      </c>
-      <c r="D19" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="E19" t="n">
-        <v>3214.2</v>
-      </c>
-      <c r="F19" t="n">
-        <v>382.1</v>
-      </c>
-      <c r="G19" t="n">
-        <v>452.3</v>
-      </c>
-      <c r="H19" t="n">
-        <v>244.5</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1051.4</v>
-      </c>
-      <c r="J19" t="n">
-        <v>12200.5</v>
-      </c>
-      <c r="K19" t="n">
-        <v>-95.8</v>
-      </c>
-      <c r="L19" t="n">
-        <v>-26</v>
-      </c>
-      <c r="M19" t="n">
-        <v>13276.2</v>
-      </c>
-      <c r="N19" t="n">
-        <v>12296.3</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>6067.6</v>
-      </c>
-      <c r="C20" t="n">
-        <v>2163.6</v>
-      </c>
-      <c r="D20" t="n">
-        <v>242.9</v>
-      </c>
-      <c r="E20" t="n">
-        <v>3504.2</v>
-      </c>
-      <c r="F20" t="n">
-        <v>296.5</v>
-      </c>
-      <c r="G20" t="n">
-        <v>505</v>
-      </c>
-      <c r="H20" t="n">
-        <v>275.5</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1287.9</v>
-      </c>
-      <c r="J20" t="n">
-        <v>13035.3</v>
-      </c>
-      <c r="K20" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L20" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="M20" t="n">
-        <v>14264.7</v>
-      </c>
-      <c r="N20" t="n">
-        <v>13055.3</v>
-      </c>
-      <c r="O20" t="n">
-        <v>44.5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>6244.9</v>
-      </c>
-      <c r="C21" t="n">
-        <v>2240.9</v>
-      </c>
-      <c r="D21" t="n">
-        <v>253.2</v>
-      </c>
-      <c r="E21" t="n">
-        <v>3839.1</v>
-      </c>
-      <c r="F21" t="n">
-        <v>262</v>
-      </c>
-      <c r="G21" t="n">
-        <v>499.9</v>
-      </c>
-      <c r="H21" t="n">
-        <v>287.9</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1637.1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>13690.3</v>
-      </c>
-      <c r="K21" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="L21" t="n">
-        <v>413.3</v>
-      </c>
-      <c r="M21" t="n">
-        <v>14880.7</v>
-      </c>
-      <c r="N21" t="n">
-        <v>13627.97</v>
-      </c>
-      <c r="O21" t="n">
-        <v>33.3</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
